--- a/Data/Dienstag/joined_Dienstag_coord_nn.xlsx
+++ b/Data/Dienstag/joined_Dienstag_coord_nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\Dienstag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92321F57-0B37-41B2-87D5-5292F397371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9048AC7-E852-4466-95AE-AD198E81BED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>ADRESSE</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Karlskirche</t>
   </si>
   <si>
-    <t>Martinolli</t>
-  </si>
-  <si>
     <t xml:space="preserve">Palais </t>
   </si>
   <si>
@@ -193,27 +190,15 @@
     <t>16.27650120252374</t>
   </si>
   <si>
-    <t>16.378672594075592</t>
-  </si>
-  <si>
     <t>16.380340127652488</t>
   </si>
   <si>
     <t>16.37984013304525</t>
   </si>
   <si>
-    <t>16.392141649460786</t>
-  </si>
-  <si>
     <t>16.383468107371698</t>
   </si>
   <si>
-    <t>16.365131105465572</t>
-  </si>
-  <si>
-    <t>16.376276583298328</t>
-  </si>
-  <si>
     <t>16.399143826918255</t>
   </si>
   <si>
@@ -235,27 +220,15 @@
     <t>48.241954429710525</t>
   </si>
   <si>
-    <t>48.179722812509716</t>
-  </si>
-  <si>
     <t>48.19424811295102</t>
   </si>
   <si>
     <t>48.19656810152272</t>
   </si>
   <si>
-    <t>48.19310095566648</t>
-  </si>
-  <si>
     <t>48.19080212731889</t>
   </si>
   <si>
-    <t>48.25174063455336</t>
-  </si>
-  <si>
-    <t>48.20862277651324</t>
-  </si>
-  <si>
     <t>48.216952048263224</t>
   </si>
   <si>
@@ -314,13 +287,64 @@
   </si>
   <si>
     <t>QGIS - Estimation</t>
+  </si>
+  <si>
+    <t>03., Am Heumarkt 1; Hauptgebäude der Münze Österreich</t>
+  </si>
+  <si>
+    <t>Wikipedia, GeoHack</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Hauptgeb%C3%A4ude_der_M%C3%BCnze_%C3%96sterreich&amp;language=de&amp;params=48.203598_N_16.382746_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>03., Rennweg</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Salesianerinnenkirche_(Wien)&amp;language=de&amp;params=48.195833333333_N_16.381666666667_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Invalidenhaus_(Wien)&amp;language=de&amp;params=48.2064_N_16.3865_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>Oberes Belvedere</t>
+  </si>
+  <si>
+    <t>Unteres Belvedere, Rennweg,Nr. 641.</t>
+  </si>
+  <si>
+    <t>Unteres Belvedere, Lokal der Ambraser=Sammlung.</t>
+  </si>
+  <si>
+    <t>sehr niedrig(f)</t>
+  </si>
+  <si>
+    <t>(Neustädter Kanal)</t>
+  </si>
+  <si>
+    <t>sehr niedrig (f)</t>
+  </si>
+  <si>
+    <t>auch Schulenstraße</t>
+  </si>
+  <si>
+    <t>geschätzt!</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>niedrig</t>
+  </si>
+  <si>
+    <t>andere als große Wienbrücke, verläuft über Neustädter Kanal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +360,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -368,49 +398,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -446,6 +469,35 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -460,10 +512,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7F5AF84-CFDC-4BB1-91E4-7E702E5234BA}" name="Table1" displayName="Table1" ref="A1:H42" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H42" xr:uid="{C7F5AF84-CFDC-4BB1-91E4-7E702E5234BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7F5AF84-CFDC-4BB1-91E4-7E702E5234BA}" name="Table1" displayName="Table1" ref="A1:H41" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:H41" xr:uid="{C7F5AF84-CFDC-4BB1-91E4-7E702E5234BA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{17362A40-A61A-4E42-A7BA-CD7CFFFDD7CF}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{17362A40-A61A-4E42-A7BA-CD7CFFFDD7CF}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B83D198C-74C6-45A0-BF79-B83808DEE32F}" name="NEUE_NAMEN"/>
     <tableColumn id="3" xr3:uid="{31E1E33B-4629-4856-AB27-BD3D8EF564F3}" name="ADRESSE"/>
     <tableColumn id="4" xr3:uid="{0C2F8A9D-9F74-4C38-9939-285F5FFF0F8E}" name="Sicherheit"/>
@@ -763,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,28 +833,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -813,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>16.370534457671599</v>
@@ -825,10 +877,10 @@
         <v>48.203303433951199</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -838,6 +890,18 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>16.36890925469498</v>
+      </c>
+      <c r="F3">
+        <v>48.200818270033373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -847,19 +911,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -869,14 +933,20 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>16.374923819999999</v>
-      </c>
-      <c r="F5">
-        <v>48.209951250000003</v>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,16 +957,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -909,14 +982,17 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>16.376520608055529</v>
+      </c>
+      <c r="F7">
+        <v>48.195815009384447</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -929,14 +1005,17 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -947,19 +1026,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -969,6 +1048,21 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -977,6 +1071,21 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -985,6 +1094,21 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -993,6 +1117,21 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1001,18 +1140,6 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1021,6 +1148,21 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>16.379694950000001</v>
+      </c>
+      <c r="F15">
+        <v>48.197128409999998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1030,19 +1172,22 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16">
-        <v>16.379694950000001</v>
-      </c>
-      <c r="H16">
-        <v>48.197128409999998</v>
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>16.381667</v>
+      </c>
+      <c r="F16" s="4">
+        <v>48.195833</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1060,6 +1205,21 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1068,17 +1228,17 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19">
+        <v>16.384493725914421</v>
+      </c>
+      <c r="F19">
+        <v>48.196613310742883</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1088,6 +1248,18 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20">
+        <v>16.386489013666061</v>
+      </c>
+      <c r="F20">
+        <v>48.194933795734357</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1096,6 +1268,18 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21">
+        <v>16.389711790117911</v>
+      </c>
+      <c r="F21">
+        <v>48.195730499565521</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1104,6 +1288,21 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22">
+        <v>16.39068825325106</v>
+      </c>
+      <c r="F22">
+        <v>48.196558239184803</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1112,17 +1311,17 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>16.393012328628409</v>
+      </c>
+      <c r="F23">
+        <v>48.197106384515031</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1132,6 +1331,18 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24">
+        <v>16.394129251833721</v>
+      </c>
+      <c r="F24">
+        <v>48.197200232543857</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1140,6 +1351,9 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1148,6 +1362,18 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26">
+        <v>16.385814834422771</v>
+      </c>
+      <c r="F26">
+        <v>48.201919197993263</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1156,6 +1382,18 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27">
+        <v>16.384629259483859</v>
+      </c>
+      <c r="F27">
+        <v>48.203992344481257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1164,6 +1402,24 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="3">
+        <v>16.382746000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>48.203598</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1172,6 +1428,21 @@
       <c r="B29" t="s">
         <v>28</v>
       </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="3">
+        <v>16.386500000000002</v>
+      </c>
+      <c r="F29" s="3">
+        <v>48.206400000000002</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1180,13 +1451,43 @@
       <c r="B30" t="s">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30">
+        <v>16.38195442809274</v>
+      </c>
+      <c r="F30">
+        <v>48.206726654426433</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31">
+        <v>16.37858988</v>
+      </c>
+      <c r="F31">
+        <v>48.207738689999999</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1194,22 +1495,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32">
-        <v>16.37858988</v>
-      </c>
-      <c r="H32">
-        <v>48.207738689999999</v>
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1219,17 +1520,17 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>78</v>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33">
+        <v>16.379973327112349</v>
+      </c>
+      <c r="F33">
+        <v>48.209980399463213</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1239,17 +1540,20 @@
       <c r="B34" t="s">
         <v>32</v>
       </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
       <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34">
-        <v>16.379973327112349</v>
-      </c>
-      <c r="F34">
-        <v>48.209980399463213</v>
+        <v>82</v>
+      </c>
+      <c r="E34" s="2">
+        <v>16.376947650000002</v>
+      </c>
+      <c r="F34" s="2">
+        <v>48.207564269999999</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1259,6 +1563,21 @@
       <c r="B35" t="s">
         <v>33</v>
       </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1267,6 +1586,21 @@
       <c r="B36" t="s">
         <v>34</v>
       </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1278,14 +1612,17 @@
       <c r="C37" t="s">
         <v>51</v>
       </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,14 +1635,17 @@
       <c r="C38" t="s">
         <v>52</v>
       </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1315,18 +1655,6 @@
       <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1335,6 +1663,18 @@
       <c r="B40" t="s">
         <v>38</v>
       </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40">
+        <v>16.274722000000001</v>
+      </c>
+      <c r="F40">
+        <v>48.246943999999999</v>
+      </c>
+      <c r="G40" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1343,25 +1683,20 @@
       <c r="B41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s">
-        <v>87</v>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
